--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chema\BuildsQA\Eduardo Delgado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Desktop\Programanding\2do Año\MP13 Projecte\WanderingShadows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B70D3-D460-4C44-82DC-8725685ECFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86098F2-66AE-4CA6-A61D-07883FBE2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E29CD0-FBB8-43D8-85F7-7A854540FE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7E29CD0-FBB8-43D8-85F7-7A854540FE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Durante la animación de estiramiento se puede pulsar shift y el personaje hará dash</t>
+  </si>
+  <si>
+    <t>Arreglado</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -225,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -371,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D06A2-A8A2-45F0-8714-8D00E6BC408D}">
-  <dimension ref="C6:K33"/>
+  <dimension ref="C6:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +542,7 @@
     <col min="11" max="11" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +570,11 @@
       <c r="K6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -590,8 +599,11 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
@@ -616,8 +628,11 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
@@ -642,8 +657,11 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
@@ -671,8 +689,11 @@
       <c r="K10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
@@ -698,17 +719,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>8</v>
       </c>
@@ -716,7 +737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>9</v>
       </c>
@@ -724,7 +745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>10</v>
       </c>
@@ -732,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11</v>
       </c>
@@ -740,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>12</v>
       </c>
@@ -748,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>13</v>
       </c>
@@ -756,7 +777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>14</v>
       </c>
@@ -764,7 +785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>15</v>
       </c>
@@ -772,15 +793,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>17</v>
       </c>
@@ -788,47 +812,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>26</v>
       </c>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edu\Desktop\Programanding\2do Año\MP13 Projecte\WanderingShadows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86098F2-66AE-4CA6-A61D-07883FBE2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6E25C-D8DA-4598-B627-AEBF7F9CD4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7E29CD0-FBB8-43D8-85F7-7A854540FE63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>Animacion How To Play</t>
+  </si>
+  <si>
+    <t>Algunos botones del how to play tienen animaciones que en otra escena no se reproducen</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>El samurai tiene extra doble salto</t>
+  </si>
+  <si>
+    <t>Cuando el samurai se queda un segundo pegado de una saliente, se reinicia su contar de salto, por lo cual puede saltar dos veces otra vez aun cayendo</t>
   </si>
 </sst>
 </file>
@@ -530,13 +548,13 @@
   <dimension ref="C6:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="11" max="11" width="33.7109375" customWidth="1"/>
@@ -723,11 +741,38 @@
       <c r="C12">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -736,6 +781,9 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -744,6 +792,9 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -752,6 +803,9 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
@@ -760,6 +814,12 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
@@ -768,6 +828,15 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
@@ -776,6 +845,12 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
@@ -784,6 +859,15 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -792,6 +876,9 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
@@ -800,8 +887,8 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="L22" t="s">
-        <v>38</v>
+      <c r="G22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
@@ -809,7 +896,10 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
